--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H2">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I2">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J2">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.09677100000000001</v>
+        <v>0.138766</v>
       </c>
       <c r="N2">
-        <v>0.290313</v>
+        <v>0.416298</v>
       </c>
       <c r="O2">
-        <v>0.02354936372111632</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="P2">
-        <v>0.02354936372111632</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="Q2">
-        <v>0.018048178584</v>
+        <v>0.09949452816999999</v>
       </c>
       <c r="R2">
-        <v>0.162433607256</v>
+        <v>0.8954507535299999</v>
       </c>
       <c r="S2">
-        <v>2.231110024922434E-05</v>
+        <v>4.955036504154898E-05</v>
       </c>
       <c r="T2">
-        <v>2.231110024922434E-05</v>
+        <v>4.955036504154899E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H3">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I3">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J3">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.162484</v>
       </c>
       <c r="O3">
-        <v>0.01318023931019921</v>
+        <v>0.00529617548814441</v>
       </c>
       <c r="P3">
-        <v>0.01318023931019921</v>
+        <v>0.005296175488144411</v>
       </c>
       <c r="Q3">
-        <v>0.010101305312</v>
+        <v>0.03883340519333333</v>
       </c>
       <c r="R3">
-        <v>0.090911747808</v>
+        <v>0.34950064674</v>
       </c>
       <c r="S3">
-        <v>1.248720109983007E-05</v>
+        <v>1.933985153282275E-05</v>
       </c>
       <c r="T3">
-        <v>1.248720109983007E-05</v>
+        <v>1.933985153282275E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H4">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I4">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J4">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.958350666666666</v>
+        <v>10.002366</v>
       </c>
       <c r="N4">
-        <v>11.875052</v>
+        <v>30.007098</v>
       </c>
       <c r="O4">
-        <v>0.9632703969686844</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="P4">
-        <v>0.9632703969686844</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="Q4">
-        <v>0.7382482327359999</v>
+        <v>7.171646410169999</v>
       </c>
       <c r="R4">
-        <v>6.644234094623999</v>
+        <v>64.54481769153</v>
       </c>
       <c r="S4">
-        <v>0.0009126200881006084</v>
+        <v>0.003571630562091421</v>
       </c>
       <c r="T4">
-        <v>0.0009126200881006082</v>
+        <v>0.003571630562091421</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>191.4773253333333</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H5">
-        <v>574.431976</v>
+        <v>2.150985</v>
       </c>
       <c r="I5">
-        <v>0.9726822973418038</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J5">
-        <v>0.9726822973418037</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.09677100000000001</v>
+        <v>0.03120566666666667</v>
       </c>
       <c r="N5">
-        <v>0.290313</v>
+        <v>0.09361700000000001</v>
       </c>
       <c r="O5">
-        <v>0.02354936372111632</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="P5">
-        <v>0.02354936372111632</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="Q5">
-        <v>18.529452249832</v>
+        <v>0.02237430697166667</v>
       </c>
       <c r="R5">
-        <v>166.765070248488</v>
+        <v>0.201368762745</v>
       </c>
       <c r="S5">
-        <v>0.02290604920519315</v>
+        <v>1.114287487351535E-05</v>
       </c>
       <c r="T5">
-        <v>0.02290604920519314</v>
+        <v>1.114287487351535E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>574.431976</v>
       </c>
       <c r="I6">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J6">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.05416133333333333</v>
+        <v>0.138766</v>
       </c>
       <c r="N6">
-        <v>0.162484</v>
+        <v>0.416298</v>
       </c>
       <c r="O6">
-        <v>0.01318023931019921</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="P6">
-        <v>0.01318023931019921</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="Q6">
-        <v>10.37066724315378</v>
+        <v>26.57054252720533</v>
       </c>
       <c r="R6">
-        <v>93.33600518838399</v>
+        <v>239.134882744848</v>
       </c>
       <c r="S6">
-        <v>0.01282018545175932</v>
+        <v>0.01323268832759796</v>
       </c>
       <c r="T6">
-        <v>0.01282018545175932</v>
+        <v>0.01323268832759796</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>574.431976</v>
       </c>
       <c r="I7">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J7">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>3.958350666666666</v>
+        <v>0.05416133333333333</v>
       </c>
       <c r="N7">
-        <v>11.875052</v>
+        <v>0.162484</v>
       </c>
       <c r="O7">
-        <v>0.9632703969686844</v>
+        <v>0.00529617548814441</v>
       </c>
       <c r="P7">
-        <v>0.9632703969686844</v>
+        <v>0.005296175488144411</v>
       </c>
       <c r="Q7">
-        <v>757.93439838475</v>
+        <v>10.37066724315378</v>
       </c>
       <c r="R7">
-        <v>6821.40958546275</v>
+        <v>93.33600518838399</v>
       </c>
       <c r="S7">
-        <v>0.9369560626848513</v>
+        <v>0.005164810136540236</v>
       </c>
       <c r="T7">
-        <v>0.9369560626848512</v>
+        <v>0.005164810136540236</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.789462333333333</v>
+        <v>191.4773253333333</v>
       </c>
       <c r="H8">
-        <v>14.368387</v>
+        <v>574.431976</v>
       </c>
       <c r="I8">
-        <v>0.02432990547214264</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J8">
-        <v>0.02432990547214263</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09677100000000001</v>
+        <v>10.002366</v>
       </c>
       <c r="N8">
-        <v>0.290313</v>
+        <v>30.007098</v>
       </c>
       <c r="O8">
-        <v>0.02354936372111632</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="P8">
-        <v>0.02354936372111632</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="Q8">
-        <v>0.463481059459</v>
+        <v>1915.226288685072</v>
       </c>
       <c r="R8">
-        <v>4.171329535131</v>
+        <v>17237.03659816565</v>
       </c>
       <c r="S8">
-        <v>0.0005729537932638651</v>
+        <v>0.9538229236020548</v>
       </c>
       <c r="T8">
-        <v>0.000572953793263865</v>
+        <v>0.9538229236020547</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.789462333333333</v>
+        <v>191.4773253333333</v>
       </c>
       <c r="H9">
-        <v>14.368387</v>
+        <v>574.431976</v>
       </c>
       <c r="I9">
-        <v>0.02432990547214264</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J9">
-        <v>0.02432990547214263</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05416133333333333</v>
+        <v>0.03120566666666667</v>
       </c>
       <c r="N9">
-        <v>0.162484</v>
+        <v>0.09361700000000001</v>
       </c>
       <c r="O9">
-        <v>0.01318023931019921</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="P9">
-        <v>0.01318023931019921</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="Q9">
-        <v>0.2594036659231111</v>
+        <v>5.975177588576889</v>
       </c>
       <c r="R9">
-        <v>2.334632993307999</v>
+        <v>53.776598297192</v>
       </c>
       <c r="S9">
-        <v>0.0003206739765173652</v>
+        <v>0.002975763955543237</v>
       </c>
       <c r="T9">
-        <v>0.0003206739765173652</v>
+        <v>0.002975763955543237</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H10">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I10">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J10">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.958350666666666</v>
+        <v>0.138766</v>
       </c>
       <c r="N10">
-        <v>11.875052</v>
+        <v>0.416298</v>
       </c>
       <c r="O10">
-        <v>0.9632703969686844</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="P10">
-        <v>0.9632703969686844</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="Q10">
-        <v>18.95837142012488</v>
+        <v>0.5742991416006666</v>
       </c>
       <c r="R10">
-        <v>170.6253427811239</v>
+        <v>5.168692274406</v>
       </c>
       <c r="S10">
-        <v>0.0234362777023614</v>
+        <v>0.0002860130364228578</v>
       </c>
       <c r="T10">
-        <v>0.0234362777023614</v>
+        <v>0.0002860130364228578</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,25 +1086,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4016586666666667</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H11">
-        <v>1.204976</v>
+        <v>12.415847</v>
       </c>
       <c r="I11">
-        <v>0.002040378796603999</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J11">
-        <v>0.002040378796603999</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,33 +1113,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.09677100000000001</v>
+        <v>0.05416133333333333</v>
       </c>
       <c r="N11">
-        <v>0.290313</v>
+        <v>0.162484</v>
       </c>
       <c r="O11">
-        <v>0.02354936372111632</v>
+        <v>0.00529617548814441</v>
       </c>
       <c r="P11">
-        <v>0.02354936372111632</v>
+        <v>0.005296175488144411</v>
       </c>
       <c r="Q11">
-        <v>0.038868910832</v>
+        <v>0.2241529426608889</v>
       </c>
       <c r="R11">
-        <v>0.3498201974880001</v>
+        <v>2.017376483948</v>
       </c>
       <c r="S11">
-        <v>4.804962241008118E-05</v>
+        <v>0.0001116328740712942</v>
       </c>
       <c r="T11">
-        <v>4.804962241008118E-05</v>
+        <v>0.0001116328740712942</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4016586666666667</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H12">
-        <v>1.204976</v>
+        <v>12.415847</v>
       </c>
       <c r="I12">
-        <v>0.002040378796603999</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J12">
-        <v>0.002040378796603999</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.05416133333333333</v>
+        <v>10.002366</v>
       </c>
       <c r="N12">
-        <v>0.162484</v>
+        <v>30.007098</v>
       </c>
       <c r="O12">
-        <v>0.01318023931019921</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="P12">
-        <v>0.01318023931019921</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="Q12">
-        <v>0.02175436893155555</v>
+        <v>41.395948631334</v>
       </c>
       <c r="R12">
-        <v>0.195789320384</v>
+        <v>372.563537682006</v>
       </c>
       <c r="S12">
-        <v>2.689268082269699E-05</v>
+        <v>0.02061605199452859</v>
       </c>
       <c r="T12">
-        <v>2.689268082269699E-05</v>
+        <v>0.02061605199452859</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.138615666666666</v>
+      </c>
+      <c r="H13">
+        <v>12.415847</v>
+      </c>
+      <c r="I13">
+        <v>0.02107801645190694</v>
+      </c>
+      <c r="J13">
+        <v>0.02107801645190694</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="P13">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="Q13">
+        <v>0.1291482609554445</v>
+      </c>
+      <c r="R13">
+        <v>1.162334348599</v>
+      </c>
+      <c r="S13">
+        <v>6.431854688419997E-05</v>
+      </c>
+      <c r="T13">
+        <v>6.431854688419997E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.014556</v>
+      </c>
+      <c r="H14">
+        <v>0.043668</v>
+      </c>
+      <c r="I14">
+        <v>7.413387281768795E-05</v>
+      </c>
+      <c r="J14">
+        <v>7.413387281768795E-05</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.138766</v>
+      </c>
+      <c r="N14">
+        <v>0.416298</v>
+      </c>
+      <c r="O14">
+        <v>0.01356925767068476</v>
+      </c>
+      <c r="P14">
+        <v>0.01356925767068476</v>
+      </c>
+      <c r="Q14">
+        <v>0.002019877896</v>
+      </c>
+      <c r="R14">
+        <v>0.018178901064</v>
+      </c>
+      <c r="S14">
+        <v>1.00594162238898E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.005941622388981E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.014556</v>
+      </c>
+      <c r="H15">
+        <v>0.043668</v>
+      </c>
+      <c r="I15">
+        <v>7.413387281768795E-05</v>
+      </c>
+      <c r="J15">
+        <v>7.413387281768795E-05</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.05416133333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.162484</v>
+      </c>
+      <c r="O15">
+        <v>0.00529617548814441</v>
+      </c>
+      <c r="P15">
+        <v>0.005296175488144411</v>
+      </c>
+      <c r="Q15">
+        <v>0.0007883723679999999</v>
+      </c>
+      <c r="R15">
+        <v>0.007095351311999999</v>
+      </c>
+      <c r="S15">
+        <v>3.926260000582541E-07</v>
+      </c>
+      <c r="T15">
+        <v>3.926260000582541E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.4016586666666667</v>
-      </c>
-      <c r="H13">
-        <v>1.204976</v>
-      </c>
-      <c r="I13">
-        <v>0.002040378796603999</v>
-      </c>
-      <c r="J13">
-        <v>0.002040378796603999</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.958350666666666</v>
-      </c>
-      <c r="N13">
-        <v>11.875052</v>
-      </c>
-      <c r="O13">
-        <v>0.9632703969686844</v>
-      </c>
-      <c r="P13">
-        <v>0.9632703969686844</v>
-      </c>
-      <c r="Q13">
-        <v>1.589905850972444</v>
-      </c>
-      <c r="R13">
-        <v>14.309152658752</v>
-      </c>
-      <c r="S13">
-        <v>0.001965436493371221</v>
-      </c>
-      <c r="T13">
-        <v>0.001965436493371221</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.014556</v>
+      </c>
+      <c r="H16">
+        <v>0.043668</v>
+      </c>
+      <c r="I16">
+        <v>7.413387281768795E-05</v>
+      </c>
+      <c r="J16">
+        <v>7.413387281768795E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.002366</v>
+      </c>
+      <c r="N16">
+        <v>30.007098</v>
+      </c>
+      <c r="O16">
+        <v>0.9780831152479456</v>
+      </c>
+      <c r="P16">
+        <v>0.9780831152479456</v>
+      </c>
+      <c r="Q16">
+        <v>0.145594439496</v>
+      </c>
+      <c r="R16">
+        <v>1.310349955464</v>
+      </c>
+      <c r="S16">
+        <v>7.250908927091922E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.250908927091922E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.014556</v>
+      </c>
+      <c r="H17">
+        <v>0.043668</v>
+      </c>
+      <c r="I17">
+        <v>7.413387281768795E-05</v>
+      </c>
+      <c r="J17">
+        <v>7.413387281768795E-05</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="P17">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="Q17">
+        <v>0.000454229684</v>
+      </c>
+      <c r="R17">
+        <v>0.004088067156</v>
+      </c>
+      <c r="S17">
+        <v>2.262159243214937E-07</v>
+      </c>
+      <c r="T17">
+        <v>2.262159243214937E-07</v>
       </c>
     </row>
   </sheetData>
